--- a/sample-data-small.xlsx
+++ b/sample-data-small.xlsx
@@ -557,6 +557,9 @@
       <c r="K3" t="n">
         <v>15</v>
       </c>
+      <c r="L3" t="n">
+        <v>95</v>
+      </c>
       <c r="M3" t="n">
         <v>27000</v>
       </c>
@@ -602,9 +605,6 @@
       <c r="K4" t="n">
         <v>12</v>
       </c>
-      <c r="L4" t="n">
-        <v>95</v>
-      </c>
       <c r="M4" t="n">
         <v>18000</v>
       </c>
@@ -651,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="L5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M5" t="n">
         <v>17400</v>
@@ -698,9 +698,6 @@
       <c r="K6" t="n">
         <v>10</v>
       </c>
-      <c r="L6" t="n">
-        <v>110</v>
-      </c>
       <c r="M6" t="n">
         <v>12000</v>
       </c>
@@ -747,7 +744,7 @@
         <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="M7" t="n">
         <v>11500</v>
@@ -795,7 +792,7 @@
         <v>12</v>
       </c>
       <c r="L8" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>18600</v>
@@ -843,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="L9" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>17760</v>
@@ -891,7 +888,7 @@
         <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M10" t="n">
         <v>11800</v>
@@ -987,7 +984,7 @@
         <v>12</v>
       </c>
       <c r="L12" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
         <v>18240</v>
@@ -1034,6 +1031,9 @@
       <c r="K13" t="n">
         <v>10</v>
       </c>
+      <c r="L13" t="n">
+        <v>100</v>
+      </c>
       <c r="M13" t="n">
         <v>11000</v>
       </c>
@@ -1078,6 +1078,9 @@
       </c>
       <c r="K14" t="n">
         <v>12</v>
+      </c>
+      <c r="L14" t="n">
+        <v>115</v>
       </c>
       <c r="M14" t="n">
         <v>17880</v>

--- a/sample-data-small.xlsx
+++ b/sample-data-small.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Staff Engineer</t>
+          <t>Staff SRE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -558,7 +558,7 @@
         <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="M3" t="n">
         <v>27000</v>
@@ -579,7 +579,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Senior Software Developer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -605,6 +605,9 @@
       <c r="K4" t="n">
         <v>12</v>
       </c>
+      <c r="L4" t="n">
+        <v>90</v>
+      </c>
       <c r="M4" t="n">
         <v>18000</v>
       </c>
@@ -624,7 +627,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Senior SRE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -651,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="L5" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>17400</v>
@@ -672,7 +675,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -698,6 +701,9 @@
       <c r="K6" t="n">
         <v>10</v>
       </c>
+      <c r="L6" t="n">
+        <v>115</v>
+      </c>
       <c r="M6" t="n">
         <v>12000</v>
       </c>
@@ -717,7 +723,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -744,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>11500</v>
@@ -765,7 +771,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Senior SRE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -792,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="L8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>18600</v>
@@ -813,7 +819,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Senior Software Developer</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -861,7 +867,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -887,9 +893,6 @@
       <c r="K10" t="n">
         <v>10</v>
       </c>
-      <c r="L10" t="n">
-        <v>95</v>
-      </c>
       <c r="M10" t="n">
         <v>11800</v>
       </c>
@@ -909,7 +912,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Staff Engineer</t>
+          <t>Staff SRE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -936,7 +939,7 @@
         <v>15</v>
       </c>
       <c r="L11" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="M11" t="n">
         <v>26250</v>
@@ -957,7 +960,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Senior Software Developer</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -984,7 +987,7 @@
         <v>12</v>
       </c>
       <c r="L12" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M12" t="n">
         <v>18240</v>
@@ -1005,7 +1008,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Software Developer</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1032,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M13" t="n">
         <v>11000</v>
@@ -1053,7 +1056,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Senior SRE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1080,7 +1083,7 @@
         <v>12</v>
       </c>
       <c r="L14" t="n">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M14" t="n">
         <v>17880</v>

--- a/sample-data-small.xlsx
+++ b/sample-data-small.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Della Gate - Engineering</t>
+          <t>Supervisory Organization (Della Gate)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -558,7 +558,7 @@
         <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M3" t="n">
         <v>27000</v>
@@ -574,7 +574,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Della Gate - Engineering</t>
+          <t>Supervisory Organization (Della Gate)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -605,9 +605,6 @@
       <c r="K4" t="n">
         <v>12</v>
       </c>
-      <c r="L4" t="n">
-        <v>90</v>
-      </c>
       <c r="M4" t="n">
         <v>18000</v>
       </c>
@@ -622,7 +619,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Della Gate - Engineering</t>
+          <t>Supervisory Organization (Della Gate)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -654,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="L5" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M5" t="n">
         <v>17400</v>
@@ -670,7 +667,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Della Gate - Engineering</t>
+          <t>Supervisory Organization (Della Gate)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -701,9 +698,6 @@
       <c r="K6" t="n">
         <v>10</v>
       </c>
-      <c r="L6" t="n">
-        <v>115</v>
-      </c>
       <c r="M6" t="n">
         <v>12000</v>
       </c>
@@ -718,7 +712,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Della Gate - Engineering</t>
+          <t>Supervisory Organization (Della Gate)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -750,7 +744,7 @@
         <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="M7" t="n">
         <v>11500</v>
@@ -766,7 +760,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Della Gate - Engineering</t>
+          <t>Supervisory Organization (Della Gate)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -798,7 +792,7 @@
         <v>12</v>
       </c>
       <c r="L8" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="M8" t="n">
         <v>18600</v>
@@ -814,7 +808,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Della Gate - Engineering</t>
+          <t>Supervisory Organization (Della Gate)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -846,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="L9" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="M9" t="n">
         <v>17760</v>
@@ -862,7 +856,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Della Gate - Engineering</t>
+          <t>Supervisory Organization (Della Gate)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -907,7 +901,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Della Gate - Engineering</t>
+          <t>Supervisory Organization (Della Gate)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -939,7 +933,7 @@
         <v>15</v>
       </c>
       <c r="L11" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M11" t="n">
         <v>26250</v>
@@ -955,7 +949,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Della Gate - Engineering</t>
+          <t>Supervisory Organization (Della Gate)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -987,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="L12" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M12" t="n">
         <v>18240</v>
@@ -1003,7 +997,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Della Gate - Engineering</t>
+          <t>Supervisory Organization (Della Gate)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1034,9 +1028,6 @@
       <c r="K13" t="n">
         <v>10</v>
       </c>
-      <c r="L13" t="n">
-        <v>110</v>
-      </c>
       <c r="M13" t="n">
         <v>11000</v>
       </c>
@@ -1051,7 +1042,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Della Gate - Engineering</t>
+          <t>Supervisory Organization (Della Gate)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1081,9 +1072,6 @@
       </c>
       <c r="K14" t="n">
         <v>12</v>
-      </c>
-      <c r="L14" t="n">
-        <v>105</v>
       </c>
       <c r="M14" t="n">
         <v>17880</v>

--- a/sample-data-small.xlsx
+++ b/sample-data-small.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:S14"/>
+  <dimension ref="A2:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,11 @@
           <t>Zero Bonus Allocated</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Performance Rating Percent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -565,6 +570,9 @@
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -605,11 +613,17 @@
       <c r="K4" t="n">
         <v>12</v>
       </c>
+      <c r="L4" t="n">
+        <v>115</v>
+      </c>
       <c r="M4" t="n">
         <v>18000</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -651,13 +665,16 @@
         <v>12</v>
       </c>
       <c r="L5" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M5" t="n">
         <v>17400</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -698,11 +715,17 @@
       <c r="K6" t="n">
         <v>10</v>
       </c>
+      <c r="L6" t="n">
+        <v>90</v>
+      </c>
       <c r="M6" t="n">
         <v>12000</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -744,13 +767,16 @@
         <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>11500</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -792,13 +818,16 @@
         <v>12</v>
       </c>
       <c r="L8" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>18600</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -839,14 +868,14 @@
       <c r="K9" t="n">
         <v>12</v>
       </c>
-      <c r="L9" t="n">
-        <v>85</v>
-      </c>
       <c r="M9" t="n">
         <v>17760</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -887,11 +916,17 @@
       <c r="K10" t="n">
         <v>10</v>
       </c>
+      <c r="L10" t="n">
+        <v>105</v>
+      </c>
       <c r="M10" t="n">
         <v>11800</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -933,13 +968,16 @@
         <v>15</v>
       </c>
       <c r="L11" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
         <v>26250</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -981,13 +1019,16 @@
         <v>12</v>
       </c>
       <c r="L12" t="n">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
         <v>18240</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1033,6 +1074,9 @@
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1073,11 +1117,17 @@
       <c r="K14" t="n">
         <v>12</v>
       </c>
+      <c r="L14" t="n">
+        <v>95</v>
+      </c>
       <c r="M14" t="n">
         <v>17880</v>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sample-data-small.xlsx
+++ b/sample-data-small.xlsx
@@ -562,9 +562,6 @@
       <c r="K3" t="n">
         <v>15</v>
       </c>
-      <c r="L3" t="n">
-        <v>110</v>
-      </c>
       <c r="M3" t="n">
         <v>27000</v>
       </c>
@@ -664,9 +661,6 @@
       <c r="K5" t="n">
         <v>12</v>
       </c>
-      <c r="L5" t="n">
-        <v>100</v>
-      </c>
       <c r="M5" t="n">
         <v>17400</v>
       </c>
@@ -716,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="L6" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M6" t="n">
         <v>12000</v>
@@ -767,7 +761,7 @@
         <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>11500</v>
@@ -817,9 +811,6 @@
       <c r="K8" t="n">
         <v>12</v>
       </c>
-      <c r="L8" t="n">
-        <v>90</v>
-      </c>
       <c r="M8" t="n">
         <v>18600</v>
       </c>
@@ -868,6 +859,9 @@
       <c r="K9" t="n">
         <v>12</v>
       </c>
+      <c r="L9" t="n">
+        <v>105</v>
+      </c>
       <c r="M9" t="n">
         <v>17760</v>
       </c>
@@ -916,9 +910,6 @@
       <c r="K10" t="n">
         <v>10</v>
       </c>
-      <c r="L10" t="n">
-        <v>105</v>
-      </c>
       <c r="M10" t="n">
         <v>11800</v>
       </c>
@@ -968,7 +959,7 @@
         <v>15</v>
       </c>
       <c r="L11" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="M11" t="n">
         <v>26250</v>
@@ -1018,16 +1009,13 @@
       <c r="K12" t="n">
         <v>12</v>
       </c>
-      <c r="L12" t="n">
-        <v>115</v>
-      </c>
       <c r="M12" t="n">
         <v>18240</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -1068,6 +1056,9 @@
       </c>
       <c r="K13" t="n">
         <v>10</v>
+      </c>
+      <c r="L13" t="n">
+        <v>110</v>
       </c>
       <c r="M13" t="n">
         <v>11000</v>
@@ -1118,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="L14" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M14" t="n">
         <v>17880</v>
@@ -1126,7 +1117,7 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/sample-data-small.xlsx
+++ b/sample-data-small.xlsx
@@ -560,10 +560,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>15</v>
+        <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>27000</v>
+        <v>6750</v>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
@@ -608,13 +608,10 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
-      </c>
-      <c r="L4" t="n">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
@@ -659,10 +656,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>90</v>
       </c>
       <c r="M5" t="n">
-        <v>17400</v>
+        <v>4350</v>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="L7" t="n">
         <v>90</v>
       </c>
       <c r="M7" t="n">
-        <v>11500</v>
+        <v>2875</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
@@ -809,10 +809,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>115</v>
       </c>
       <c r="M8" t="n">
-        <v>18600</v>
+        <v>4650</v>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
@@ -857,13 +860,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M9" t="n">
-        <v>17760</v>
+        <v>4440</v>
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
@@ -908,10 +911,10 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="M10" t="n">
-        <v>11800</v>
+        <v>2950</v>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
@@ -956,13 +959,10 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>15</v>
-      </c>
-      <c r="L11" t="n">
-        <v>95</v>
+        <v>3.75</v>
       </c>
       <c r="M11" t="n">
-        <v>26250</v>
+        <v>6562.5</v>
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
@@ -1007,10 +1007,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>12</v>
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>100</v>
       </c>
       <c r="M12" t="n">
-        <v>18240</v>
+        <v>4560</v>
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
@@ -1055,13 +1058,10 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
-      </c>
-      <c r="L13" t="n">
-        <v>110</v>
+        <v>2.5</v>
       </c>
       <c r="M13" t="n">
-        <v>11000</v>
+        <v>2750</v>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
@@ -1106,13 +1106,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
         <v>85</v>
       </c>
       <c r="M14" t="n">
-        <v>17880</v>
+        <v>4470</v>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
